--- a/dashboard_df.xlsx
+++ b/dashboard_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>latest_date</t>
   </si>
@@ -43,7 +43,142 @@
     <t>quarterly_zscore</t>
   </si>
   <si>
-    <t>US04M</t>
+    <t>US03M</t>
+  </si>
+  <si>
+    <t>US06M</t>
+  </si>
+  <si>
+    <t>US01Y</t>
+  </si>
+  <si>
+    <t>US02Y</t>
+  </si>
+  <si>
+    <t>US05Y</t>
+  </si>
+  <si>
+    <t>US10Y</t>
+  </si>
+  <si>
+    <t>US30Y</t>
+  </si>
+  <si>
+    <t>US10YBE</t>
+  </si>
+  <si>
+    <t>US5YFI</t>
+  </si>
+  <si>
+    <t>CAD06M</t>
+  </si>
+  <si>
+    <t>CAD01Y</t>
+  </si>
+  <si>
+    <t>CAD02Y</t>
+  </si>
+  <si>
+    <t>CAD05Y</t>
+  </si>
+  <si>
+    <t>CAD10Y</t>
+  </si>
+  <si>
+    <t>CAD30Y</t>
+  </si>
+  <si>
+    <t>CADI10Y</t>
+  </si>
+  <si>
+    <t>EM02Y</t>
+  </si>
+  <si>
+    <t>EM05Y</t>
+  </si>
+  <si>
+    <t>EM10Y</t>
+  </si>
+  <si>
+    <t>EM30Y</t>
+  </si>
+  <si>
+    <t>ES06M</t>
+  </si>
+  <si>
+    <t>ES12M</t>
+  </si>
+  <si>
+    <t>JPN10Y</t>
+  </si>
+  <si>
+    <t>USHY</t>
+  </si>
+  <si>
+    <t>USIG</t>
+  </si>
+  <si>
+    <t>EUHY</t>
+  </si>
+  <si>
+    <t>EMIG</t>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>SEK</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>KRW</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>BRL</t>
+  </si>
+  <si>
+    <t>CLP</t>
+  </si>
+  <si>
+    <t>RUB</t>
+  </si>
+  <si>
+    <t>TRY</t>
+  </si>
+  <si>
+    <t>S&amp;P</t>
+  </si>
+  <si>
+    <t>NAS</t>
+  </si>
+  <si>
+    <t>RUS</t>
   </si>
 </sst>
 </file>
@@ -405,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -445,31 +580,1471 @@
         <v>9</v>
       </c>
       <c r="B2" s="2">
-        <v>44846</v>
+        <v>44855</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>-0.5299999999999998</v>
+        <v>-0.9100000000000001</v>
       </c>
       <c r="E2">
-        <v>-0.3300000000000001</v>
+        <v>-0.6499999999999999</v>
       </c>
       <c r="F2">
-        <v>-3.424433855133967</v>
+        <v>-6.367418385128895</v>
       </c>
       <c r="G2">
-        <v>-0.1400000000000001</v>
+        <v>-0.1200000000000001</v>
       </c>
       <c r="H2">
-        <v>-0.6438787766057397</v>
+        <v>-0.5903465261273904</v>
       </c>
       <c r="I2">
-        <v>0.5600000000000001</v>
+        <v>0.6600000000000001</v>
       </c>
       <c r="J2">
-        <v>0.7453676585803536</v>
+        <v>0.8628696654922483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44855</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>-0.3399999999999999</v>
+      </c>
+      <c r="E3">
+        <v>-0.1699999999999999</v>
+      </c>
+      <c r="F3">
+        <v>-1.849182718376079</v>
+      </c>
+      <c r="G3">
+        <v>0.2400000000000002</v>
+      </c>
+      <c r="H3">
+        <v>0.6136289870206312</v>
+      </c>
+      <c r="I3">
+        <v>1.19</v>
+      </c>
+      <c r="J3">
+        <v>1.613020174259618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44855</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>-0.4400000000000004</v>
+      </c>
+      <c r="E4">
+        <v>-0.29</v>
+      </c>
+      <c r="F4">
+        <v>-2.752116119318182</v>
+      </c>
+      <c r="G4">
+        <v>0.0299999999999998</v>
+      </c>
+      <c r="H4">
+        <v>-0.1304915827430358</v>
+      </c>
+      <c r="I4">
+        <v>1.12</v>
+      </c>
+      <c r="J4">
+        <v>1.574210758514887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44855</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>-0.6200000000000001</v>
+      </c>
+      <c r="E5">
+        <v>-0.4800000000000004</v>
+      </c>
+      <c r="F5">
+        <v>-4.425102587879568</v>
+      </c>
+      <c r="G5">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="H5">
+        <v>-0.9995356301973228</v>
+      </c>
+      <c r="I5">
+        <v>1.11</v>
+      </c>
+      <c r="J5">
+        <v>1.574009967998901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44855</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>-0.4500000000000002</v>
+      </c>
+      <c r="E6">
+        <v>-0.25</v>
+      </c>
+      <c r="F6">
+        <v>-2.239240940627405</v>
+      </c>
+      <c r="G6">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="H6">
+        <v>-0.08829598017200377</v>
+      </c>
+      <c r="I6">
+        <v>1.3</v>
+      </c>
+      <c r="J6">
+        <v>2.193010413909791</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44855</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>-0.2400000000000002</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>-0.1217186662030906</v>
+      </c>
+      <c r="G7">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="H7">
+        <v>1.038049942194653</v>
+      </c>
+      <c r="I7">
+        <v>1.33</v>
+      </c>
+      <c r="J7">
+        <v>2.490827787307098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44855</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>-0.2400000000000002</v>
+      </c>
+      <c r="E8">
+        <v>0.009999999999999787</v>
+      </c>
+      <c r="F8">
+        <v>-0.01606272989265323</v>
+      </c>
+      <c r="G8">
+        <v>0.3900000000000001</v>
+      </c>
+      <c r="H8">
+        <v>1.634852521233869</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2.163091357700776</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44858</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>-0.52</v>
+      </c>
+      <c r="E9">
+        <v>-0.4500000000000002</v>
+      </c>
+      <c r="F9">
+        <v>-4.692258788557633</v>
+      </c>
+      <c r="G9">
+        <v>-0.3199999999999998</v>
+      </c>
+      <c r="H9">
+        <v>-1.734578858581124</v>
+      </c>
+      <c r="I9">
+        <v>-0.5099999999999998</v>
+      </c>
+      <c r="J9">
+        <v>-1.817593525914962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44858</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>-0.3500000000000001</v>
+      </c>
+      <c r="E10">
+        <v>-0.4199999999999999</v>
+      </c>
+      <c r="F10">
+        <v>-4.79412999481823</v>
+      </c>
+      <c r="G10">
+        <v>-0.3100000000000001</v>
+      </c>
+      <c r="H10">
+        <v>-2.161671623559273</v>
+      </c>
+      <c r="I10">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="J10">
+        <v>-1.636523510657459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44855</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>-0.21</v>
+      </c>
+      <c r="E11">
+        <v>0.0299999999999998</v>
+      </c>
+      <c r="F11">
+        <v>0.1432776833518874</v>
+      </c>
+      <c r="G11">
+        <v>0.2400000000000002</v>
+      </c>
+      <c r="H11">
+        <v>0.6885310690582115</v>
+      </c>
+      <c r="I11">
+        <v>0.9900000000000002</v>
+      </c>
+      <c r="J11">
+        <v>1.345071673225422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44855</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>-0.3799999999999999</v>
+      </c>
+      <c r="E12">
+        <v>-0.1600000000000001</v>
+      </c>
+      <c r="F12">
+        <v>-1.783515560948238</v>
+      </c>
+      <c r="G12">
+        <v>0.08999999999999986</v>
+      </c>
+      <c r="H12">
+        <v>0.1096622209523219</v>
+      </c>
+      <c r="I12">
+        <v>0.8599999999999999</v>
+      </c>
+      <c r="J12">
+        <v>1.159726409533012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44855</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>-0.2800000000000002</v>
+      </c>
+      <c r="E13">
+        <v>-0.1399999999999997</v>
+      </c>
+      <c r="F13">
+        <v>-1.469006680042266</v>
+      </c>
+      <c r="G13">
+        <v>0.23</v>
+      </c>
+      <c r="H13">
+        <v>0.6808575382648526</v>
+      </c>
+      <c r="I13">
+        <v>0.8900000000000001</v>
+      </c>
+      <c r="J13">
+        <v>1.327602160255291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44855</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>-0.8399999999999999</v>
+      </c>
+      <c r="E14">
+        <v>-0.6400000000000001</v>
+      </c>
+      <c r="F14">
+        <v>-5.548482065441463</v>
+      </c>
+      <c r="G14">
+        <v>-0.3500000000000001</v>
+      </c>
+      <c r="H14">
+        <v>-1.598266166856781</v>
+      </c>
+      <c r="I14">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="J14">
+        <v>-0.1053310670536222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44855</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>-0.6600000000000001</v>
+      </c>
+      <c r="E15">
+        <v>-0.4700000000000002</v>
+      </c>
+      <c r="F15">
+        <v>-4.055319497813054</v>
+      </c>
+      <c r="G15">
+        <v>-0.0299999999999998</v>
+      </c>
+      <c r="H15">
+        <v>-0.3163510518333882</v>
+      </c>
+      <c r="I15">
+        <v>0.1400000000000001</v>
+      </c>
+      <c r="J15">
+        <v>0.005468115047539493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44855</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>-0.6699999999999999</v>
+      </c>
+      <c r="E16">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="F16">
+        <v>-3.701439457088173</v>
+      </c>
+      <c r="G16">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="H16">
+        <v>0.09391437355603387</v>
+      </c>
+      <c r="I16">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="J16">
+        <v>0.1005324325304662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44805</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>-0.78</v>
+      </c>
+      <c r="E17">
+        <v>-0.8799999999999999</v>
+      </c>
+      <c r="F17">
+        <v>-2.817329387765697</v>
+      </c>
+      <c r="G17">
+        <v>-0.5700000000000001</v>
+      </c>
+      <c r="H17">
+        <v>-0.7997801032681485</v>
+      </c>
+      <c r="I17">
+        <v>-0.6599999999999999</v>
+      </c>
+      <c r="J17">
+        <v>-0.7172242509301574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44855</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>-0.09567033154445381</v>
+      </c>
+      <c r="E18">
+        <v>0.1677599170561728</v>
+      </c>
+      <c r="F18">
+        <v>1.431054981308241</v>
+      </c>
+      <c r="G18">
+        <v>0.1853231214679658</v>
+      </c>
+      <c r="H18">
+        <v>0.5180459755818806</v>
+      </c>
+      <c r="I18">
+        <v>1.745608939225112</v>
+      </c>
+      <c r="J18">
+        <v>4.675793539786026</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44855</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>-0.21389463060363</v>
+      </c>
+      <c r="E19">
+        <v>-0.01915555386838674</v>
+      </c>
+      <c r="F19">
+        <v>-0.3339264102734585</v>
+      </c>
+      <c r="G19">
+        <v>0.04459302432987444</v>
+      </c>
+      <c r="H19">
+        <v>-0.1151863013826583</v>
+      </c>
+      <c r="I19">
+        <v>1.448666265034142</v>
+      </c>
+      <c r="J19">
+        <v>3.490329675961301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44855</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>-0.5074531938904481</v>
+      </c>
+      <c r="E20">
+        <v>-0.3909187555657905</v>
+      </c>
+      <c r="F20">
+        <v>-3.748429541587415</v>
+      </c>
+      <c r="G20">
+        <v>-0.0150525783280635</v>
+      </c>
+      <c r="H20">
+        <v>-0.3750187025855247</v>
+      </c>
+      <c r="I20">
+        <v>1.071487902247492</v>
+      </c>
+      <c r="J20">
+        <v>2.465568223428428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44855</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>-0.4913796880069676</v>
+      </c>
+      <c r="E21">
+        <v>-0.4296075919839297</v>
+      </c>
+      <c r="F21">
+        <v>-4.212476381415403</v>
+      </c>
+      <c r="G21">
+        <v>-0.05497379216527776</v>
+      </c>
+      <c r="H21">
+        <v>-0.5180698787308127</v>
+      </c>
+      <c r="I21">
+        <v>0.7034523885459416</v>
+      </c>
+      <c r="J21">
+        <v>1.523952467610678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44858</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0.19876</v>
+      </c>
+      <c r="E22">
+        <v>0.23165</v>
+      </c>
+      <c r="F22">
+        <v>23.08372192835462</v>
+      </c>
+      <c r="G22">
+        <v>0.37009</v>
+      </c>
+      <c r="H22">
+        <v>10.73319308047384</v>
+      </c>
+      <c r="I22">
+        <v>0.56687</v>
+      </c>
+      <c r="J22">
+        <v>9.457428037481689</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44858</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0.38683</v>
+      </c>
+      <c r="E23">
+        <v>0.40117</v>
+      </c>
+      <c r="F23">
+        <v>72.83559751250851</v>
+      </c>
+      <c r="G23">
+        <v>0.47096</v>
+      </c>
+      <c r="H23">
+        <v>24.98784396533694</v>
+      </c>
+      <c r="I23">
+        <v>0.56871</v>
+      </c>
+      <c r="J23">
+        <v>17.29614628716441</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44805</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>-0.43516</v>
+      </c>
+      <c r="E24">
+        <v>-0.43185</v>
+      </c>
+      <c r="F24">
+        <v>-1.612793472204449</v>
+      </c>
+      <c r="G24">
+        <v>-0.064343</v>
+      </c>
+      <c r="H24">
+        <v>0.2213641048461892</v>
+      </c>
+      <c r="I24">
+        <v>-0.245</v>
+      </c>
+      <c r="J24">
+        <v>0.4907090673786956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44855</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>-0.8899999999999997</v>
+      </c>
+      <c r="E25">
+        <v>-1.15</v>
+      </c>
+      <c r="F25">
+        <v>-2.830843784509694</v>
+      </c>
+      <c r="G25">
+        <v>-1.12</v>
+      </c>
+      <c r="H25">
+        <v>-1.20987726755353</v>
+      </c>
+      <c r="I25">
+        <v>-0.8300000000000001</v>
+      </c>
+      <c r="J25">
+        <v>-0.6028084690378067</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44855</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="E26">
+        <v>-0.7</v>
+      </c>
+      <c r="F26">
+        <v>-4.525848102786806</v>
+      </c>
+      <c r="G26">
+        <v>-0.51</v>
+      </c>
+      <c r="H26">
+        <v>-1.41521526166283</v>
+      </c>
+      <c r="I26">
+        <v>-0.53</v>
+      </c>
+      <c r="J26">
+        <v>-1.027029328974805</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44855</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>-0.05999999999999961</v>
+      </c>
+      <c r="E27">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="F27">
+        <v>-0.6644551652665558</v>
+      </c>
+      <c r="G27">
+        <v>0.4500000000000002</v>
+      </c>
+      <c r="H27">
+        <v>0.4748509188557659</v>
+      </c>
+      <c r="I27">
+        <v>0.1900000000000004</v>
+      </c>
+      <c r="J27">
+        <v>0.01589498646374946</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44855</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>-0.29</v>
+      </c>
+      <c r="E28">
+        <v>-0.3399999999999999</v>
+      </c>
+      <c r="F28">
+        <v>-1.085343505515471</v>
+      </c>
+      <c r="G28">
+        <v>-0.04999999999999982</v>
+      </c>
+      <c r="H28">
+        <v>-0.08427837011414568</v>
+      </c>
+      <c r="I28">
+        <v>-0.6299999999999999</v>
+      </c>
+      <c r="J28">
+        <v>-0.5782657111061448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44858</v>
+      </c>
+      <c r="C29">
+        <v>1648</v>
+      </c>
+      <c r="D29">
+        <v>-3</v>
+      </c>
+      <c r="E29">
+        <v>-9</v>
+      </c>
+      <c r="F29">
+        <v>-0.228562168970156</v>
+      </c>
+      <c r="G29">
+        <v>24.699951171875</v>
+      </c>
+      <c r="H29">
+        <v>0.3005776792116678</v>
+      </c>
+      <c r="I29">
+        <v>-114.9000244140625</v>
+      </c>
+      <c r="J29">
+        <v>-1.139682440824066</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44858</v>
+      </c>
+      <c r="C30">
+        <v>84</v>
+      </c>
+      <c r="D30">
+        <v>-1.050003051757812</v>
+      </c>
+      <c r="E30">
+        <v>-1.459999084472656</v>
+      </c>
+      <c r="F30">
+        <v>-0.3049680944248705</v>
+      </c>
+      <c r="G30">
+        <v>7.290000915527344</v>
+      </c>
+      <c r="H30">
+        <v>0.7104755535375458</v>
+      </c>
+      <c r="I30">
+        <v>-14.62000274658203</v>
+      </c>
+      <c r="J30">
+        <v>-1.087954400689188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44858</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>-0.3777300119400024</v>
+      </c>
+      <c r="E31">
+        <v>-0.3854999542236328</v>
+      </c>
+      <c r="F31">
+        <v>-28.62829725299369</v>
+      </c>
+      <c r="G31">
+        <v>-0.3580800294876099</v>
+      </c>
+      <c r="H31">
+        <v>-13.36022588969918</v>
+      </c>
+      <c r="I31">
+        <v>-0.281559944152832</v>
+      </c>
+      <c r="J31">
+        <v>-6.751357406457063</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44858</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>-0.02260994911193848</v>
+      </c>
+      <c r="E32">
+        <v>-0.02675998210906982</v>
+      </c>
+      <c r="F32">
+        <v>-2.753177426759937</v>
+      </c>
+      <c r="G32">
+        <v>-0.03199994564056396</v>
+      </c>
+      <c r="H32">
+        <v>-2.046501223486431</v>
+      </c>
+      <c r="I32">
+        <v>0.02039998769760132</v>
+      </c>
+      <c r="J32">
+        <v>0.4136900718908348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44858</v>
+      </c>
+      <c r="C33">
+        <v>147</v>
+      </c>
+      <c r="D33">
+        <v>-3.175994873046875</v>
+      </c>
+      <c r="E33">
+        <v>-1.632003784179688</v>
+      </c>
+      <c r="F33">
+        <v>-1.416801274615612</v>
+      </c>
+      <c r="G33">
+        <v>3.488998413085938</v>
+      </c>
+      <c r="H33">
+        <v>0.9684771683846365</v>
+      </c>
+      <c r="I33">
+        <v>13.59300231933594</v>
+      </c>
+      <c r="J33">
+        <v>2.444093149341306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44858</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>-0.8911499977111816</v>
+      </c>
+      <c r="E34">
+        <v>-0.8893499970436096</v>
+      </c>
+      <c r="F34">
+        <v>-73.42844475683559</v>
+      </c>
+      <c r="G34">
+        <v>-0.9261500239372253</v>
+      </c>
+      <c r="H34">
+        <v>-46.79667207732693</v>
+      </c>
+      <c r="I34">
+        <v>-0.8218700289726257</v>
+      </c>
+      <c r="J34">
+        <v>-26.25239316624363</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44858</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>-1.003810048103333</v>
+      </c>
+      <c r="E35">
+        <v>-1.00366997718811</v>
+      </c>
+      <c r="F35">
+        <v>-97.23097458577303</v>
+      </c>
+      <c r="G35">
+        <v>-0.9824100136756897</v>
+      </c>
+      <c r="H35">
+        <v>-56.96179347042477</v>
+      </c>
+      <c r="I35">
+        <v>-0.9530699849128723</v>
+      </c>
+      <c r="J35">
+        <v>-35.85136158792289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44858</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>-0.5937000513076782</v>
+      </c>
+      <c r="E36">
+        <v>-0.6066999435424805</v>
+      </c>
+      <c r="F36">
+        <v>-24.90134819523794</v>
+      </c>
+      <c r="G36">
+        <v>-0.5312299728393555</v>
+      </c>
+      <c r="H36">
+        <v>-11.12781559694349</v>
+      </c>
+      <c r="I36">
+        <v>-0.4344700574874878</v>
+      </c>
+      <c r="J36">
+        <v>-5.611746077410483</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="2">
+        <v>44858</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>-0.269740104675293</v>
+      </c>
+      <c r="E37">
+        <v>-0.2736997604370117</v>
+      </c>
+      <c r="F37">
+        <v>-1.878472565286363</v>
+      </c>
+      <c r="G37">
+        <v>-0.2969799041748047</v>
+      </c>
+      <c r="H37">
+        <v>-1.201948019523311</v>
+      </c>
+      <c r="I37">
+        <v>0.8305902481079102</v>
+      </c>
+      <c r="J37">
+        <v>1.602087911102523</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="2">
+        <v>44858</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>-0.2157998085021973</v>
+      </c>
+      <c r="E38">
+        <v>-0.190000057220459</v>
+      </c>
+      <c r="F38">
+        <v>-4.875251428325821</v>
+      </c>
+      <c r="G38">
+        <v>-0.1273999214172363</v>
+      </c>
+      <c r="H38">
+        <v>-1.474029052758653</v>
+      </c>
+      <c r="I38">
+        <v>0.2568001747131348</v>
+      </c>
+      <c r="J38">
+        <v>1.506775561976255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="2">
+        <v>44858</v>
+      </c>
+      <c r="C39">
+        <v>1428</v>
+      </c>
+      <c r="D39">
+        <v>-2.31005859375</v>
+      </c>
+      <c r="E39">
+        <v>-12.760009765625</v>
+      </c>
+      <c r="F39">
+        <v>-1.13064566345029</v>
+      </c>
+      <c r="G39">
+        <v>6.18994140625</v>
+      </c>
+      <c r="H39">
+        <v>-0.02885696754566137</v>
+      </c>
+      <c r="I39">
+        <v>125.719970703125</v>
+      </c>
+      <c r="J39">
+        <v>2.492139585420402</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="2">
+        <v>44858</v>
+      </c>
+      <c r="C40">
+        <v>82</v>
+      </c>
+      <c r="D40">
+        <v>-0.8256988525390625</v>
+      </c>
+      <c r="E40">
+        <v>-0.4128036499023438</v>
+      </c>
+      <c r="F40">
+        <v>-0.8652349828680943</v>
+      </c>
+      <c r="G40">
+        <v>0.7452011108398438</v>
+      </c>
+      <c r="H40">
+        <v>0.3982080815317665</v>
+      </c>
+      <c r="I40">
+        <v>2.805198669433594</v>
+      </c>
+      <c r="J40">
+        <v>1.240101626785721</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="2">
+        <v>44858</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>-0.2165999412536621</v>
+      </c>
+      <c r="E41">
+        <v>-0.3274002075195312</v>
+      </c>
+      <c r="F41">
+        <v>-2.538068528712778</v>
+      </c>
+      <c r="G41">
+        <v>-0.2588000297546387</v>
+      </c>
+      <c r="H41">
+        <v>-1.104106574293097</v>
+      </c>
+      <c r="I41">
+        <v>-0.1711997985839844</v>
+      </c>
+      <c r="J41">
+        <v>-0.5999052133315441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="2">
+        <v>44858</v>
+      </c>
+      <c r="C42">
+        <v>972</v>
+      </c>
+      <c r="D42">
+        <v>-6</v>
+      </c>
+      <c r="E42">
+        <v>10.489990234375</v>
+      </c>
+      <c r="F42">
+        <v>0.4332312690071102</v>
+      </c>
+      <c r="G42">
+        <v>1.95001220703125</v>
+      </c>
+      <c r="H42">
+        <v>-0.1359988192810842</v>
+      </c>
+      <c r="I42">
+        <v>71.4000244140625</v>
+      </c>
+      <c r="J42">
+        <v>1.088927115346312</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="2">
+        <v>44858</v>
+      </c>
+      <c r="C43">
+        <v>61</v>
+      </c>
+      <c r="D43">
+        <v>-0.6150016784667969</v>
+      </c>
+      <c r="E43">
+        <v>-1.615001678466797</v>
+      </c>
+      <c r="F43">
+        <v>-0.2748103403488471</v>
+      </c>
+      <c r="G43">
+        <v>3.784999847412109</v>
+      </c>
+      <c r="H43">
+        <v>0.3847119800097696</v>
+      </c>
+      <c r="I43">
+        <v>-1.215000152587891</v>
+      </c>
+      <c r="J43">
+        <v>-0.06722305273491805</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="2">
+        <v>44858</v>
+      </c>
+      <c r="C44">
+        <v>18</v>
+      </c>
+      <c r="D44">
+        <v>-0.5856990814208984</v>
+      </c>
+      <c r="E44">
+        <v>-0.5869007110595703</v>
+      </c>
+      <c r="F44">
+        <v>-1.532509968819078</v>
+      </c>
+      <c r="G44">
+        <v>-0.4325008392333984</v>
+      </c>
+      <c r="H44">
+        <v>-1.033858721715399</v>
+      </c>
+      <c r="I44">
+        <v>0.0774993896484375</v>
+      </c>
+      <c r="J44">
+        <v>-0.7113742683728531</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44858</v>
+      </c>
+      <c r="C45">
+        <v>3809</v>
+      </c>
+      <c r="D45">
+        <v>45</v>
+      </c>
+      <c r="E45">
+        <v>119.75</v>
+      </c>
+      <c r="F45">
+        <v>1.079209273864699</v>
+      </c>
+      <c r="G45">
+        <v>139</v>
+      </c>
+      <c r="H45">
+        <v>0.5595288129351819</v>
+      </c>
+      <c r="I45">
+        <v>-324.5</v>
+      </c>
+      <c r="J45">
+        <v>-1.271703400882694</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="2">
+        <v>44858</v>
+      </c>
+      <c r="C46">
+        <v>11478</v>
+      </c>
+      <c r="D46">
+        <v>119.5</v>
+      </c>
+      <c r="E46">
+        <v>367.75</v>
+      </c>
+      <c r="F46">
+        <v>0.8313163530903883</v>
+      </c>
+      <c r="G46">
+        <v>161.75</v>
+      </c>
+      <c r="H46">
+        <v>0.08503998041566682</v>
+      </c>
+      <c r="I46">
+        <v>-1493.5</v>
+      </c>
+      <c r="J46">
+        <v>-1.439489123302537</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="2">
+        <v>44858</v>
+      </c>
+      <c r="C47">
+        <v>1754</v>
+      </c>
+      <c r="D47">
+        <v>7.0999755859375</v>
+      </c>
+      <c r="E47">
+        <v>12</v>
+      </c>
+      <c r="F47">
+        <v>0.1578536455480372</v>
+      </c>
+      <c r="G47">
+        <v>91.5</v>
+      </c>
+      <c r="H47">
+        <v>0.6180724902139365</v>
+      </c>
+      <c r="I47">
+        <v>-131.300048828125</v>
+      </c>
+      <c r="J47">
+        <v>-0.6669586490018556</v>
       </c>
     </row>
   </sheetData>
